--- a/.templates/NEW FULL BOB TEMPLATE (1) - Copy.xlsx
+++ b/.templates/NEW FULL BOB TEMPLATE (1) - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohini\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AF791-B309-465E-8472-DAD4EDA16A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DCA2C9-21E5-4FC3-9E35-8768F4678FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87A946C8-B9D0-4F7D-B4C5-18FD6613F336}"/>
   </bookViews>
@@ -1229,17 +1229,146 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1252,135 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,8 +1701,8 @@
   </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B8:C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,32 +1718,32 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="39" t="s">
         <v>6</v>
       </c>
@@ -1753,8 +1753,8 @@
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
@@ -1764,8 +1764,8 @@
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1786,8 +1786,8 @@
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1808,8 +1808,8 @@
       <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
@@ -1819,8 +1819,8 @@
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
@@ -1830,8 +1830,8 @@
       <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
@@ -1841,8 +1841,8 @@
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
@@ -1852,8 +1852,8 @@
       <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
@@ -1863,8 +1863,8 @@
       <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1874,19 +1874,19 @@
       <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="49" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="23" t="s">
         <v>32</v>
       </c>
@@ -1896,8 +1896,8 @@
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="16" t="s">
         <v>34</v>
       </c>
@@ -1907,8 +1907,8 @@
       <c r="A18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="A19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="8" t="s">
         <v>38</v>
       </c>
@@ -1931,8 +1931,8 @@
       <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
@@ -1942,8 +1942,8 @@
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="16" t="s">
         <v>42</v>
       </c>
@@ -1953,8 +1953,8 @@
       <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="16" t="s">
         <v>44</v>
       </c>
@@ -2053,11 +2053,11 @@
       <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="12" t="s">
         <v>64</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="A32" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="12" t="s">
         <v>66</v>
       </c>
@@ -2078,8 +2078,8 @@
       <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="12" t="s">
         <v>68</v>
       </c>
@@ -2089,8 +2089,8 @@
       <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="16" t="s">
         <v>70</v>
       </c>
@@ -2100,8 +2100,8 @@
       <c r="A35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="12" t="s">
         <v>72</v>
       </c>
@@ -2111,8 +2111,8 @@
       <c r="A36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="16" t="s">
         <v>74</v>
       </c>
@@ -2122,19 +2122,19 @@
       <c r="A37" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="29" t="s">
         <v>78</v>
       </c>
@@ -2144,19 +2144,19 @@
       <c r="A39" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="47" t="s">
+      <c r="B39" s="68"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="73"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="40" t="s">
         <v>82</v>
       </c>
@@ -2166,8 +2166,8 @@
       <c r="A41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="16" t="s">
         <v>84</v>
       </c>
@@ -2177,8 +2177,8 @@
       <c r="A42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="78"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="16" t="s">
         <v>86</v>
       </c>
@@ -2188,8 +2188,8 @@
       <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="78"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="16" t="s">
         <v>88</v>
       </c>
@@ -2199,8 +2199,8 @@
       <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="78"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="16" t="s">
         <v>90</v>
       </c>
@@ -2210,113 +2210,113 @@
       <c r="A45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="78"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="84"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="84"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="84"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="12" t="s">
         <v>97</v>
       </c>
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="95"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="12" t="s">
         <v>103</v>
       </c>
       <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="16" t="s">
         <v>104</v>
       </c>
       <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="16" t="s">
         <v>106</v>
       </c>
@@ -2344,10 +2344,10 @@
       <c r="A59" s="14"/>
       <c r="B59" s="1"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="82"/>
+      <c r="E59" s="50"/>
     </row>
     <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
@@ -2443,6 +2443,46 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="B45:C45"/>
@@ -2450,46 +2490,6 @@
     <mergeCell ref="B46:C50"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="B51:C55"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/.templates/NEW FULL BOB TEMPLATE (1) - Copy.xlsx
+++ b/.templates/NEW FULL BOB TEMPLATE (1) - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohini\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohini\Downloads\BCBSIL-main\BCBSIL-main\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DCA2C9-21E5-4FC3-9E35-8768F4678FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905DBF13-B98F-4C52-92C8-DA81D11AC350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87A946C8-B9D0-4F7D-B4C5-18FD6613F336}"/>
   </bookViews>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
